--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H2">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I2">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J2">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N2">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O2">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P2">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q2">
-        <v>0.1921199982273334</v>
+        <v>0.03526171898666666</v>
       </c>
       <c r="R2">
-        <v>1.729079984046</v>
+        <v>0.3173554708799999</v>
       </c>
       <c r="S2">
-        <v>0.001229147707344844</v>
+        <v>0.000257651800437639</v>
       </c>
       <c r="T2">
-        <v>0.001460971835955059</v>
+        <v>0.000305972384090936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H3">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I3">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J3">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P3">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q3">
-        <v>0.8657898654860001</v>
+        <v>0.233446547152</v>
       </c>
       <c r="R3">
-        <v>7.792108789374001</v>
+        <v>2.101018924368</v>
       </c>
       <c r="S3">
-        <v>0.005539161138994402</v>
+        <v>0.001705756976918976</v>
       </c>
       <c r="T3">
-        <v>0.006583877894031783</v>
+        <v>0.002025658380889013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H4">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I4">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J4">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N4">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O4">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P4">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q4">
-        <v>0.107027729264</v>
+        <v>0.017210558064</v>
       </c>
       <c r="R4">
-        <v>0.9632495633760002</v>
+        <v>0.154895022576</v>
       </c>
       <c r="S4">
-        <v>0.0006847433336508017</v>
+        <v>0.0001257548241877504</v>
       </c>
       <c r="T4">
-        <v>0.0008138897541311803</v>
+        <v>0.0001493391596810341</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H5">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I5">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J5">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N5">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O5">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P5">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q5">
-        <v>0.7336359306460002</v>
+        <v>0.26258155</v>
       </c>
       <c r="R5">
-        <v>4.401815583876001</v>
+        <v>1.5754893</v>
       </c>
       <c r="S5">
-        <v>0.004693665055692462</v>
+        <v>0.001918641832089576</v>
       </c>
       <c r="T5">
-        <v>0.003719277682032218</v>
+        <v>0.001518978752419357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H6">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I6">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J6">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N6">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O6">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P6">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q6">
-        <v>0.194253891092</v>
+        <v>0.02396400145066667</v>
       </c>
       <c r="R6">
-        <v>1.748285019828</v>
+        <v>0.215676013056</v>
       </c>
       <c r="S6">
-        <v>0.001242799953579101</v>
+        <v>0.0001751011662757888</v>
       </c>
       <c r="T6">
-        <v>0.001477198972145923</v>
+        <v>0.0002079400229748205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>18.901559</v>
       </c>
       <c r="I7">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J7">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N7">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O7">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P7">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q7">
-        <v>12.09174102642478</v>
+        <v>8.230851880407776</v>
       </c>
       <c r="R7">
-        <v>108.825669237823</v>
+        <v>74.07766692366998</v>
       </c>
       <c r="S7">
-        <v>0.07736069070150077</v>
+        <v>0.06014153215061573</v>
       </c>
       <c r="T7">
-        <v>0.09195134941842603</v>
+        <v>0.07142060697324502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>18.901559</v>
       </c>
       <c r="I8">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J8">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P8">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q8">
         <v>54.49149975720966</v>
@@ -948,10 +948,10 @@
         <v>490.423497814887</v>
       </c>
       <c r="S8">
-        <v>0.3486263929541681</v>
+        <v>0.3981607653983361</v>
       </c>
       <c r="T8">
-        <v>0.4143792795065147</v>
+        <v>0.4728327084595207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>18.901559</v>
       </c>
       <c r="I9">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J9">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N9">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O9">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P9">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q9">
-        <v>6.736162798498667</v>
+        <v>4.017318448300999</v>
       </c>
       <c r="R9">
-        <v>60.625465186488</v>
+        <v>36.15586603470899</v>
       </c>
       <c r="S9">
-        <v>0.04309670589460942</v>
+        <v>0.02935391015757003</v>
       </c>
       <c r="T9">
-        <v>0.05122498553934828</v>
+        <v>0.03485900683809384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>18.901559</v>
       </c>
       <c r="I10">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J10">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N10">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O10">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P10">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q10">
-        <v>46.17393172445634</v>
+        <v>61.29224288229167</v>
       </c>
       <c r="R10">
-        <v>277.043590346738</v>
+        <v>367.75345729375</v>
       </c>
       <c r="S10">
-        <v>0.295412153039143</v>
+        <v>0.4478527191897503</v>
       </c>
       <c r="T10">
-        <v>0.2340856909819432</v>
+        <v>0.354562666822279</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>18.901559</v>
       </c>
       <c r="I11">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J11">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N11">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O11">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P11">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q11">
-        <v>12.22604500381267</v>
+        <v>5.593718969767111</v>
       </c>
       <c r="R11">
-        <v>110.034405034314</v>
+        <v>50.343470727904</v>
       </c>
       <c r="S11">
-        <v>0.07821994235368057</v>
+        <v>0.04087241930115877</v>
       </c>
       <c r="T11">
-        <v>0.09297266073547214</v>
+        <v>0.04853772244516801</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H12">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I12">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J12">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N12">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O12">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P12">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q12">
-        <v>2.038774788093167</v>
+        <v>0.1501451362416666</v>
       </c>
       <c r="R12">
-        <v>12.232648728559</v>
+        <v>0.9008708174499999</v>
       </c>
       <c r="S12">
-        <v>0.01304369862429376</v>
+        <v>0.001097086749918455</v>
       </c>
       <c r="T12">
-        <v>0.01033587539989747</v>
+        <v>0.0008685578698511041</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H13">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I13">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J13">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P13">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q13">
-        <v>9.187750186478501</v>
+        <v>0.9940202756575</v>
       </c>
       <c r="R13">
-        <v>55.12650111887101</v>
+        <v>5.964121653945</v>
       </c>
       <c r="S13">
-        <v>0.05878150209018959</v>
+        <v>0.007263148849649532</v>
       </c>
       <c r="T13">
-        <v>0.04657868131753989</v>
+        <v>0.005750197141412923</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H14">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I14">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J14">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N14">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O14">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P14">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q14">
-        <v>1.135776796084</v>
+        <v>0.07328291585249999</v>
       </c>
       <c r="R14">
-        <v>6.814660776504001</v>
+        <v>0.4396974951149999</v>
       </c>
       <c r="S14">
-        <v>0.007266486871971584</v>
+        <v>0.0005354666690485559</v>
       </c>
       <c r="T14">
-        <v>0.005757991277397791</v>
+        <v>0.0004239261749170234</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H15">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I15">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J15">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N15">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O15">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P15">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q15">
-        <v>7.785334441188502</v>
+        <v>1.1180777265625</v>
       </c>
       <c r="R15">
-        <v>31.14133776475401</v>
+        <v>4.47231090625</v>
       </c>
       <c r="S15">
-        <v>0.04980910924211248</v>
+        <v>0.008169617011212034</v>
       </c>
       <c r="T15">
-        <v>0.02631261585817935</v>
+        <v>0.004311895511322806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H16">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I16">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J16">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N16">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O16">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P16">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q16">
-        <v>2.061419629927</v>
+        <v>0.1020392189066667</v>
       </c>
       <c r="R16">
-        <v>12.368517779562</v>
+        <v>0.6122353134399999</v>
       </c>
       <c r="S16">
-        <v>0.01318857607422121</v>
+        <v>0.0007455844247551903</v>
       </c>
       <c r="T16">
-        <v>0.01045067683113539</v>
+        <v>0.0005902753085001371</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H17">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I17">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J17">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N17">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O17">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P17">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q17">
-        <v>0.02590233928111111</v>
+        <v>0.01369735935</v>
       </c>
       <c r="R17">
-        <v>0.23312105353</v>
+        <v>0.12327623415</v>
       </c>
       <c r="S17">
-        <v>0.000165718307495364</v>
+        <v>0.000100084437151328</v>
       </c>
       <c r="T17">
-        <v>0.000196973706663671</v>
+        <v>0.0001188544919677484</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H18">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I18">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J18">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P18">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q18">
-        <v>0.1167290393966667</v>
+        <v>0.09068194453499999</v>
       </c>
       <c r="R18">
-        <v>1.05056135457</v>
+        <v>0.8161375008149999</v>
       </c>
       <c r="S18">
-        <v>0.000746810495933921</v>
+        <v>0.0006625986182200453</v>
       </c>
       <c r="T18">
-        <v>0.0008876631301798322</v>
+        <v>0.0007868638160796272</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H19">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I19">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J19">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N19">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O19">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P19">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q19">
-        <v>0.01442988018666667</v>
+        <v>0.006685414244999999</v>
       </c>
       <c r="R19">
-        <v>0.12986892168</v>
+        <v>0.06016872820499999</v>
       </c>
       <c r="S19">
-        <v>9.231966641866605E-05</v>
+        <v>4.884926391555138E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001097316715773663</v>
+        <v>5.801056199079883E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H20">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I20">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J20">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N20">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O20">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P20">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q20">
-        <v>0.09891154986333334</v>
+        <v>0.101999390625</v>
       </c>
       <c r="R20">
-        <v>0.59346929918</v>
+        <v>0.61199634375</v>
       </c>
       <c r="S20">
-        <v>0.0006328175404237766</v>
+        <v>0.0007452934058039126</v>
       </c>
       <c r="T20">
-        <v>0.000501446977355618</v>
+        <v>0.0005900449103110906</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H21">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I21">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J21">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N21">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O21">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P21">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q21">
-        <v>0.02619003872666667</v>
+        <v>0.009308778719999999</v>
       </c>
       <c r="R21">
-        <v>0.23571034854</v>
+        <v>0.08377900847999999</v>
       </c>
       <c r="S21">
-        <v>0.0001675589545762086</v>
+        <v>6.801777298464901E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001991615100732837</v>
+        <v>8.077397528493599E-05</v>
       </c>
     </row>
   </sheetData>
